--- a/test_data/caldata.xlsx
+++ b/test_data/caldata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kalbo\Desktop\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>Principle</t>
   </si>
@@ -64,12 +64,19 @@
   </si>
   <si>
     <t>FAIL</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>Failed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -95,7 +102,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -118,6 +125,26 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
       </patternFill>
     </fill>
   </fills>
@@ -133,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -151,6 +178,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,15 +471,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="3"/>
-    <col min="5" max="5" width="14.21875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.21875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="14" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="10.33203125"/>
+    <col min="2" max="2" customWidth="true" style="3" width="16.88671875"/>
+    <col min="3" max="3" customWidth="true" style="3" width="13.88671875"/>
+    <col min="4" max="4" style="3" width="8.88671875"/>
+    <col min="5" max="5" customWidth="true" style="3" width="14.21875"/>
+    <col min="6" max="6" customWidth="true" style="3" width="15.21875"/>
+    <col min="7" max="7" customWidth="true" style="3" width="11.5546875"/>
+    <col min="8" max="8" customWidth="true" style="3" width="14.0"/>
+    <col min="9" max="16384" style="3" width="8.88671875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -496,7 +528,9 @@
       <c r="G2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="4"/>
+      <c r="H2" t="s" s="7">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
@@ -520,7 +554,9 @@
       <c r="G3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="4"/>
+      <c r="H3" t="s" s="8">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
@@ -544,7 +580,9 @@
       <c r="G4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="4"/>
+      <c r="H4" t="s" s="9">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
@@ -568,7 +606,9 @@
       <c r="G5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="4"/>
+      <c r="H5" t="s" s="10">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
@@ -592,7 +632,9 @@
       <c r="G6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="4"/>
+      <c r="H6" t="s" s="11">
+        <v>14</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
